--- a/cp1/Tishkov_Papucha_FB_93_cp1/monogramms_with_spaces.xlsx
+++ b/cp1/Tishkov_Papucha_FB_93_cp1/monogramms_with_spaces.xlsx
@@ -486,7 +486,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.858521051184376</v>
+        <v>0.1618590985665046</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -494,7 +494,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.01567350789713124</v>
+        <v>0.09285203309395715</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -502,7 +502,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.01210019501939254</v>
+        <v>0.07168323235346784</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -510,7 +510,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.01175635275464422</v>
+        <v>0.06964626312136915</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -518,7 +518,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.008952756313430458</v>
+        <v>0.05303736923174233</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -526,7 +526,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.008930424987685814</v>
+        <v>0.05290507536296182</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -534,7 +534,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.008871701871838791</v>
+        <v>0.05255719148579823</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -542,7 +542,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0.007716563294684099</v>
+        <v>0.04571399045524235</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -550,7 +550,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>0.007015344628372528</v>
+        <v>0.04155987388875378</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -558,7 +558,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>0.006469994104379624</v>
+        <v>0.03832914180031911</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -566,7 +566,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>0.006266906862506629</v>
+        <v>0.03712602483204915</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -574,7 +574,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>0.004780257123035003</v>
+        <v>0.02831890572925993</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -582,7 +582,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>0.004743865332932622</v>
+        <v>0.02810331572087686</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -590,7 +590,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>0.004569274968019963</v>
+        <v>0.02706901820132009</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -598,7 +598,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>0.004007307531604277</v>
+        <v>0.02373984522062787</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -606,7 +606,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>0.003672863972977442</v>
+        <v>0.02175855522623142</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -614,7 +614,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>0.002912771811520904</v>
+        <v>0.01725566391477602</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -622,7 +622,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>0.002885477968944119</v>
+        <v>0.01709397140848872</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -630,7 +630,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>0.002674420624280106</v>
+        <v>0.01584363844664726</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -638,7 +638,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>0.002658104470453213</v>
+        <v>0.01574697928999618</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -646,7 +646,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>0.002439077022998183</v>
+        <v>0.01444943033458322</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -654,7 +654,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>0.002393436906072263</v>
+        <v>0.01417905195630115</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -662,7 +662,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>0.002114182549790774</v>
+        <v>0.01252471044569225</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -670,7 +670,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>0.001496649962784883</v>
+        <v>0.0088663618117044</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -678,7 +678,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>0.001492364152793487</v>
+        <v>0.008840972079312179</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -686,7 +686,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>0.001130175613696035</v>
+        <v>0.00669531697521873</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -694,7 +694,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>0.0009156595451793171</v>
+        <v>0.005424494053902848</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -702,7 +702,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>0.0008431015339214718</v>
+        <v>0.004994650338841569</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -710,7 +710,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>0.0005917425374085422</v>
+        <v>0.003505564805732912</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -718,7 +718,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>0.0005175303538733158</v>
+        <v>0.00306592154483604</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -726,7 +726,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>0.0004472280320846262</v>
+        <v>0.002649440846823299</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -734,7 +734,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>0.0004397090671874402</v>
+        <v>0.002604897456661509</v>
       </c>
     </row>
   </sheetData>
